--- a/src/test/java/test_resources/Test.xlsx
+++ b/src/test/java/test_resources/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\Bad Mergentheim\Semester 4\Web Services\Dokumentenarchiv\poi-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\Bad Mergentheim\Semester 4\Web Services\Dokumentenarchiv\document_archive_spring_db\demo\src\test\java\test_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7163A54-2DD6-4E05-A0AA-B78DAB87A819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2793F8E6-1C6D-4845-92EE-EB747BDADAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="225" windowWidth="16200" windowHeight="11385" xr2:uid="{79C583B3-BC41-4FD3-AF7A-2A26DAC52D03}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,14 +413,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
